--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_1_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_1_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_24</t>
+          <t>model_1_9_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9986576526014803</v>
+        <v>0.9999725495236833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9977452978672686</v>
+        <v>0.9991504608298857</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9969684920588825</v>
+        <v>0.9999825394944135</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9991946205332018</v>
+        <v>0.9999654515624168</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9980728823777989</v>
+        <v>0.9999792349456303</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001253022374277242</v>
+        <v>2.562381470503193e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002104665470919557</v>
+        <v>0.0007930075248420113</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002726829566753351</v>
+        <v>1.29371043077079e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007124331694461795</v>
+        <v>2.778029110334897e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001719631368099765</v>
+        <v>2.035869770552843e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004032171159305806</v>
+        <v>0.0005401701689822259</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03539805608048614</v>
+        <v>0.005061997106383204</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9892612208118425</v>
+        <v>0.9997803961894665</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0369050246119102</v>
+        <v>0.005277496802980509</v>
       </c>
       <c r="P2" t="n">
-        <v>55.36439349332319</v>
+        <v>63.14397675397781</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.9607858155554</v>
+        <v>88.74036907621002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_23</t>
+          <t>model_1_9_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9986356265832715</v>
+        <v>0.9999726367053325</v>
       </c>
       <c r="C3" t="n">
-        <v>0.997723625490834</v>
+        <v>0.999148851644994</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9969462952017886</v>
+        <v>0.9999822428298046</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9991728012475495</v>
+        <v>0.99996405869681</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9980508798513638</v>
+        <v>0.9999785516703574</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001273582695444626</v>
+        <v>2.554243446223062e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002124895683013844</v>
+        <v>0.0007945096283033475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002746795553116699</v>
+        <v>1.315691357787847e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0007317343603421671</v>
+        <v>2.890029000143778e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001739264956729433</v>
+        <v>2.102860178965812e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004067867264999375</v>
+        <v>0.0005382462072145622</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03568729039090284</v>
+        <v>0.00505395236050268</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9890850126661723</v>
+        <v>0.9997810936426603</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0372065722257189</v>
+        <v>0.005269109575612932</v>
       </c>
       <c r="P3" t="n">
-        <v>55.33184266017189</v>
+        <v>63.15033878463268</v>
       </c>
       <c r="Q3" t="n">
-        <v>80.92823498240409</v>
+        <v>88.74673110686489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_22</t>
+          <t>model_1_9_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9986131518718394</v>
+        <v>0.9999733838878799</v>
       </c>
       <c r="C4" t="n">
-        <v>0.997701509561203</v>
+        <v>0.9991446681995695</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9969237808230407</v>
+        <v>0.9999783948595735</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9991504394706611</v>
+        <v>0.99995649802966</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9980284483969348</v>
+        <v>0.9999739972406801</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00129456185204079</v>
+        <v>2.484497235174242e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002145539932547285</v>
+        <v>0.0007984146909750145</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002767047148969027</v>
+        <v>1.600801041507193e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0007515154352762377</v>
+        <v>3.497979891865636e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001759281292122633</v>
+        <v>2.549390466686414e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004105002491749067</v>
+        <v>0.0005290688345357379</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03598002017843779</v>
+        <v>0.00498447312679509</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9889052149747153</v>
+        <v>0.9997870711030394</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03751176412634341</v>
+        <v>0.005196672467084567</v>
       </c>
       <c r="P4" t="n">
-        <v>55.29916595854471</v>
+        <v>63.20571029148091</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.89555828077691</v>
+        <v>88.80210261371312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_21</t>
+          <t>model_1_9_11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9985902159202431</v>
+        <v>0.9999737354087338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9976789352780724</v>
+        <v>0.9991431035026674</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9969009178759686</v>
+        <v>0.9999782307459845</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9991274736202429</v>
+        <v>0.9999567117480644</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9980055418425111</v>
+        <v>0.9999740228685782</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001315971556084012</v>
+        <v>2.451684306465177e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002166612034953208</v>
+        <v>0.0007998752668508682</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00278761228066931</v>
+        <v>1.612960796038298e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0007718308695242376</v>
+        <v>3.480794861501492e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001779721575096774</v>
+        <v>2.546877828769895e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004142893393507608</v>
+        <v>0.0005252305830184326</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03627632225135304</v>
+        <v>0.004951448582450571</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9887217273619449</v>
+        <v>0.9997898832698704</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03782068039193251</v>
+        <v>0.005162241999517071</v>
       </c>
       <c r="P5" t="n">
-        <v>55.26636012046104</v>
+        <v>63.23230040917527</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.86275244269325</v>
+        <v>88.82869273140747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_20</t>
+          <t>model_1_9_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9985668153069197</v>
+        <v>0.9999726378640159</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9976559005518839</v>
+        <v>0.9991393079981838</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9968776350681208</v>
+        <v>0.9999887012803286</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9991040001171433</v>
+        <v>0.9999726657746356</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9979821720479769</v>
+        <v>0.9999845216066817</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00133781500145317</v>
+        <v>2.554135288218392e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002188113940742544</v>
+        <v>0.0008034182036828869</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002808555075499267</v>
+        <v>8.37161983706783e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0007925953698630804</v>
+        <v>2.197936551773703e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001800575222681174</v>
+        <v>1.517549267740243e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004181146511904952</v>
+        <v>0.0005595588845094414</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03657615345348893</v>
+        <v>0.005053845355982306</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9885345224553577</v>
+        <v>0.9997811029121273</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03813327602907948</v>
+        <v>0.005268998015688594</v>
       </c>
       <c r="P6" t="n">
-        <v>55.23343518363653</v>
+        <v>63.1504234753029</v>
       </c>
       <c r="Q6" t="n">
-        <v>80.82982750586874</v>
+        <v>88.74681579753511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_19</t>
+          <t>model_1_9_12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9985429287458333</v>
+        <v>0.9999727481409503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9976323862873405</v>
+        <v>0.999136564949521</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9968539007779764</v>
+        <v>0.9999692677668545</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9990799322234253</v>
+        <v>0.9999453240156486</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9979582800828786</v>
+        <v>0.9999659662936581</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001360112057728542</v>
+        <v>2.543841420457141e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002210063474536836</v>
+        <v>0.000805978719203826</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002829903976893806</v>
+        <v>2.277059526387076e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0008138856640788098</v>
+        <v>4.39647887979686e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001821894820486308</v>
+        <v>3.336769203091968e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004219801058221426</v>
+        <v>0.0005225597120433593</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03687969709377427</v>
+        <v>0.005043650880520122</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9883434299666662</v>
+        <v>0.9997819851276022</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03844974215055372</v>
+        <v>0.005258369540300512</v>
       </c>
       <c r="P7" t="n">
-        <v>55.20037637447971</v>
+        <v>63.15850031232242</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.79676869671192</v>
+        <v>88.75489263455462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_18</t>
+          <t>model_1_9_13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9985185627384062</v>
+        <v>0.9999733587990155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9976083924497643</v>
+        <v>0.9991221633345928</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9968298462561787</v>
+        <v>0.9999555032399848</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9990552325649028</v>
+        <v>0.9999412812497246</v>
       </c>
       <c r="F8" t="n">
-        <v>0.997933913574311</v>
+        <v>0.9999591073702112</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001382856656117516</v>
+        <v>2.486839170545688e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002232460668706507</v>
+        <v>0.000819421994581388</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002851540925411272</v>
+        <v>3.296921860711819e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000835734813120785</v>
+        <v>4.721556429137091e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001843637869266028</v>
+        <v>4.009239144924456e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004258844351782607</v>
+        <v>0.0005155859703234772</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03718678066353037</v>
+        <v>0.004986821804060867</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9881485019072498</v>
+        <v>0.999786870392124</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03876989890362497</v>
+        <v>0.005199121132403981</v>
       </c>
       <c r="P8" t="n">
-        <v>55.16720775746033</v>
+        <v>63.20382594059129</v>
       </c>
       <c r="Q8" t="n">
-        <v>80.76360007969252</v>
+        <v>88.80021826282349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_17</t>
+          <t>model_1_9_0</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9984936787868223</v>
+        <v>0.9999597615705373</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9975838865527934</v>
+        <v>0.9991179950014524</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9968054065145812</v>
+        <v>0.9999735156620301</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9990298723126556</v>
+        <v>0.9999446793196354</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9979090254779451</v>
+        <v>0.9999673070396976</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001406084732641899</v>
+        <v>3.75608076404918e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002255335847844312</v>
+        <v>0.0008233129505992563</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002873524377635806</v>
+        <v>1.962317993256681e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0008581683188547276</v>
+        <v>4.448318685508971e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001865846348245267</v>
+        <v>3.205318339382826e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004298319193730506</v>
+        <v>0.0006845244753556366</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03749779637047888</v>
+        <v>0.006128687268942004</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9879494302945782</v>
+        <v>0.9996780925642987</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03909415519310955</v>
+        <v>0.006389598174112479</v>
       </c>
       <c r="P9" t="n">
-        <v>55.13389244474523</v>
+        <v>62.37909880235978</v>
       </c>
       <c r="Q9" t="n">
-        <v>80.73028476697743</v>
+        <v>87.97549112459198</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_16</t>
+          <t>model_1_9_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9984682767445274</v>
+        <v>0.9999590558350402</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9975588722596064</v>
+        <v>0.9991169845707958</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9967805516583629</v>
+        <v>0.9999704502027865</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999003866648531</v>
+        <v>0.9999406565630541</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9978836082514669</v>
+        <v>0.9999644990938386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00142979642410333</v>
+        <v>3.821958074881056e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002278685592533838</v>
+        <v>0.0008242561432644951</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002895881223842357</v>
+        <v>2.189448678501221e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00088117275152234</v>
+        <v>4.771787289836967e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001888526987682348</v>
+        <v>3.480617984169094e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004338211362394291</v>
+        <v>0.0006917675581347298</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03781264899611412</v>
+        <v>0.006182198698586981</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9877462139562194</v>
+        <v>0.9996724466803215</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03942241174685285</v>
+        <v>0.006445387696101372</v>
       </c>
       <c r="P10" t="n">
-        <v>55.10044641122296</v>
+        <v>62.34432517726238</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.69683873345517</v>
+        <v>87.94071749949458</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_15</t>
+          <t>model_1_9_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9984423873480216</v>
+        <v>0.9999589900456951</v>
       </c>
       <c r="C11" t="n">
-        <v>0.997533357151665</v>
+        <v>0.9991169556795026</v>
       </c>
       <c r="D11" t="n">
-        <v>0.996755190535814</v>
+        <v>0.9999698314640325</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9989773541237479</v>
+        <v>0.9999377292739443</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9978576846278902</v>
+        <v>0.9999630648928821</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001453963039328421</v>
+        <v>3.828099221469758e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002302502825813313</v>
+        <v>0.000824283112018422</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002918693454638253</v>
+        <v>2.235293214676598e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0009046255496627466</v>
+        <v>5.007169695815818e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0019116595021505</v>
+        <v>3.621231455246209e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004378438403571009</v>
+        <v>0.0006925273345701602</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03813086727742265</v>
+        <v>0.006187163503148885</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9875390987841728</v>
+        <v>0.9996719203655609</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03975417723919934</v>
+        <v>0.006450563862672039</v>
       </c>
       <c r="P11" t="n">
-        <v>55.06692464037622</v>
+        <v>62.34111414358252</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.66331696260843</v>
+        <v>87.93750646581472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_14</t>
+          <t>model_1_9_3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9984159313816174</v>
+        <v>0.9999597754184518</v>
       </c>
       <c r="C12" t="n">
-        <v>0.997507291870035</v>
+        <v>0.9991164705215925</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9967294149623495</v>
+        <v>0.999971153622126</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9989500782878357</v>
+        <v>0.9999378898315363</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9978311737704281</v>
+        <v>0.999963630326709</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001478658522683984</v>
+        <v>3.754788122012297e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002326833622081336</v>
+        <v>0.0008247359856315838</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002941878482415902</v>
+        <v>2.137329859138507e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0009287535676087375</v>
+        <v>4.994259309827668e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00193531602501232</v>
+        <v>3.565794584483087e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004419135354293703</v>
+        <v>0.000688038262632407</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03845332914955458</v>
+        <v>0.006127632595066628</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9873274510529395</v>
+        <v>0.9996782033476146</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04009036698081603</v>
+        <v>0.006388498600586752</v>
       </c>
       <c r="P12" t="n">
-        <v>55.03324001166029</v>
+        <v>62.37978721381749</v>
       </c>
       <c r="Q12" t="n">
-        <v>80.62963233389249</v>
+        <v>87.9761795360497</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_13</t>
+          <t>model_1_9_4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9983889463564254</v>
+        <v>0.9999600483356207</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9974806835728584</v>
+        <v>0.9991159742047644</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9967032625795551</v>
+        <v>0.9999712078263155</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9989221360140396</v>
+        <v>0.9999361401894734</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9978041426674247</v>
+        <v>0.9999629333269726</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001503847859195074</v>
+        <v>3.729312502265389e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002351671299526403</v>
+        <v>0.0008251992756047823</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002965402448715787</v>
+        <v>2.133313679585313e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0009534711119499476</v>
+        <v>5.134947483404451e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001959436780332867</v>
+        <v>3.634130581494883e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004460228851418219</v>
+        <v>0.000686921562437244</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03877947729398985</v>
+        <v>0.006106809725433886</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9871115708514031</v>
+        <v>0.9996803866849655</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04043039992697964</v>
+        <v>0.006366789258284462</v>
       </c>
       <c r="P13" t="n">
-        <v>54.99945643204266</v>
+        <v>62.39340312809857</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.59584875427487</v>
+        <v>87.98979545033077</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_12</t>
+          <t>model_1_9_5</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9983614199339705</v>
+        <v>0.9999601357131377</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9974535481606246</v>
+        <v>0.9991143910252996</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9966766830013979</v>
+        <v>0.9999707195790016</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9988934897489565</v>
+        <v>0.99993462138488</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9977765473098099</v>
+        <v>0.9999621260156419</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001529542566286327</v>
+        <v>3.721156194603329e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002377001015739706</v>
+        <v>0.0008266771041416116</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002989310675578024</v>
+        <v>2.169489644803486e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000978811402169998</v>
+        <v>5.257074087921367e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001984061038874011</v>
+        <v>3.713281866362427e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004501731013435253</v>
+        <v>0.0006876486278826655</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03910936673338405</v>
+        <v>0.006100128027019867</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9868913594717643</v>
+        <v>0.9996810857051015</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04077433344277414</v>
+        <v>0.006359823106135935</v>
       </c>
       <c r="P14" t="n">
-        <v>54.96557312912712</v>
+        <v>62.39778207994829</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.56196545135933</v>
+        <v>87.99417440218051</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_11</t>
+          <t>model_1_9_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.998333317603421</v>
+        <v>0.9999721347203929</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9974258384781711</v>
+        <v>0.9991134451020721</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9966497263954706</v>
+        <v>0.9999459653042008</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9988639814468084</v>
+        <v>0.9999323794640511</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9977483346452922</v>
+        <v>0.9999518529612706</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001555774858304545</v>
+        <v>2.601101536884285e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002402866787995548</v>
+        <v>0.0008275600819532899</v>
       </c>
       <c r="I15" t="n">
-        <v>0.003013558037448631</v>
+        <v>4.003621157062597e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001004914244483432</v>
+        <v>5.437346243807291e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002009236140966032</v>
+        <v>4.720483700434944e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004543683663028293</v>
+        <v>0.0005247109901220928</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0394433119591211</v>
+        <v>0.005100099544993495</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9866665408273683</v>
+        <v>0.9997770777631434</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04112249540813272</v>
+        <v>0.005317221341285361</v>
       </c>
       <c r="P15" t="n">
-        <v>54.93156311260251</v>
+        <v>63.11398088326467</v>
       </c>
       <c r="Q15" t="n">
-        <v>80.52795543483472</v>
+        <v>88.71037320549688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_10</t>
+          <t>model_1_9_6</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9983046310623197</v>
+        <v>0.9999605939606154</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9973975641924332</v>
+        <v>0.9991133554247726</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9966220760780877</v>
+        <v>0.9999714969236781</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9988339752267578</v>
+        <v>0.9999338600694625</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9977195255413988</v>
+        <v>0.9999621075496388</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001582552485229019</v>
+        <v>3.67838080403082e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002429259592634194</v>
+        <v>0.0008276437917759743</v>
       </c>
       <c r="I16" t="n">
-        <v>0.003038429390067232</v>
+        <v>2.111893436530847e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001031457541568996</v>
+        <v>5.3182912236302e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002034943465818114</v>
+        <v>3.715092330080523e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004586042684108996</v>
+        <v>0.0006855670541968514</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03978130823928518</v>
+        <v>0.006064965625649349</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9864370484985576</v>
+        <v>0.9996847516849234</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04147488088969215</v>
+        <v>0.006323163768542869</v>
       </c>
       <c r="P16" t="n">
-        <v>54.89743247694885</v>
+        <v>62.42090561704396</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.49382479918106</v>
+        <v>88.01729793927616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_9</t>
+          <t>model_1_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.998275374669076</v>
+        <v>0.9999713967443867</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9973687021384559</v>
+        <v>0.9991030510019647</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9965941107510773</v>
+        <v>0.9999377416329009</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9988031940854176</v>
+        <v>0.9999251550573149</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9976901735686435</v>
+        <v>0.9999457830113535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001609862044114803</v>
+        <v>2.669988357718085e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002456201053124239</v>
+        <v>0.0008372625181552383</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003063584092617057</v>
+        <v>4.612941963217472e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001058686328728491</v>
+        <v>6.018258540340495e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002061135210672773</v>
+        <v>5.315600251778984e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004628820542138538</v>
+        <v>0.0005283013325399392</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0401230861738576</v>
+        <v>0.005167193007541024</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9862029973526081</v>
+        <v>0.9997711739550939</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04183120901851718</v>
+        <v>0.005387171111436152</v>
       </c>
       <c r="P17" t="n">
-        <v>54.86321358108462</v>
+        <v>63.06170270594558</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.45960590331683</v>
+        <v>88.65809502817778</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_8</t>
+          <t>model_1_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9982455153920999</v>
+        <v>0.9999717363444552</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9973392329458958</v>
+        <v>0.9991004011902685</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9965656956801225</v>
+        <v>0.9999376277553176</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9987716530432263</v>
+        <v>0.9999264357808401</v>
       </c>
       <c r="F18" t="n">
-        <v>0.997660218264189</v>
+        <v>0.9999462651718161</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001637734368501124</v>
+        <v>2.638288181989167e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002483709250831077</v>
+        <v>0.0008397360010602981</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003089143338090197</v>
+        <v>4.621379554942704e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001086587318985046</v>
+        <v>5.915275960402035e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002087865328537621</v>
+        <v>5.268327757672369e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004672031099778311</v>
+        <v>0.0005249951353865998</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04046893090385666</v>
+        <v>0.005136426950701399</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9859641231367995</v>
+        <v>0.9997738907556419</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04219177707466958</v>
+        <v>0.005355095279862348</v>
       </c>
       <c r="P18" t="n">
-        <v>54.82888294978835</v>
+        <v>63.08559034807543</v>
       </c>
       <c r="Q18" t="n">
-        <v>80.42527527202056</v>
+        <v>88.68198267030763</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_7</t>
+          <t>model_1_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9982150374590671</v>
+        <v>0.9999727092677507</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9973091627266639</v>
+        <v>0.9990970663832764</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9965367479925208</v>
+        <v>0.9999402295273685</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9987393028011484</v>
+        <v>0.9999302790520599</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9976295934233713</v>
+        <v>0.9999488243057038</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001666184181160667</v>
+        <v>2.54747006299781e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002511778480553901</v>
+        <v>0.0008428488970063883</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003115181670159457</v>
+        <v>4.428605088922231e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001115204121928359</v>
+        <v>5.606239718117627e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002115192896043908</v>
+        <v>5.017422403519929e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004715708480177733</v>
+        <v>0.0005164771514176589</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04081891940216775</v>
+        <v>0.005047246836640556</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9857202996725372</v>
+        <v>0.9997816741420058</v>
       </c>
       <c r="O19" t="n">
-        <v>0.04255666530792985</v>
+        <v>0.005262118583717649</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79443837686088</v>
+        <v>63.15564946089299</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.39083069909309</v>
+        <v>88.75204178312519</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_6</t>
+          <t>model_1_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9981839187771941</v>
+        <v>0.9999703281899832</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9972784432214126</v>
+        <v>0.9990939241910899</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9965073523441795</v>
+        <v>0.9999269274480108</v>
       </c>
       <c r="E20" t="n">
-        <v>0.998706117777565</v>
+        <v>0.9999204793569387</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9975983290340484</v>
+        <v>0.9999397793608567</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001695232104736766</v>
+        <v>2.769733220877914e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002540453790275613</v>
+        <v>0.0008457819954862569</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003141622941166381</v>
+        <v>5.414203056334981e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001144559366883502</v>
+        <v>6.394230151934036e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002143091154024942</v>
+        <v>5.904216604134508e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004759832877748883</v>
+        <v>0.0005346711990179681</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0411731964357489</v>
+        <v>0.005262825496706036</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9854713502175532</v>
+        <v>0.9997626255198657</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0429260246482851</v>
+        <v>0.005486874873651463</v>
       </c>
       <c r="P20" t="n">
-        <v>54.75987122515303</v>
+        <v>62.98834891912296</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.35626354738523</v>
+        <v>88.58474124135516</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_5</t>
+          <t>model_1_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9981521755717309</v>
+        <v>0.999970507023289</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9972471113302039</v>
+        <v>0.9990901550156127</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9964772570609537</v>
+        <v>0.9999242233955395</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9986723014876948</v>
+        <v>0.9999229044419236</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9975663991240099</v>
+        <v>0.9999397520644135</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001724862993671062</v>
+        <v>2.753039916761801e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002569700735407804</v>
+        <v>0.0008493003553465153</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00316869353102268</v>
+        <v>5.614555839369071e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.001174473025679552</v>
+        <v>6.199229823297453e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002171583278351116</v>
+        <v>5.906892831333263e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004804383919290091</v>
+        <v>0.000532363769616825</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04153146991946062</v>
+        <v>0.00524694188719658</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9852174045738469</v>
+        <v>0.9997640561863124</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04329955057592678</v>
+        <v>0.005470315066001584</v>
       </c>
       <c r="P21" t="n">
-        <v>54.72521531122374</v>
+        <v>63.00043947909251</v>
       </c>
       <c r="Q21" t="n">
-        <v>80.32160763345594</v>
+        <v>88.59683180132473</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_4</t>
+          <t>model_1_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9981197864052191</v>
+        <v>0.9999711785667055</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9972151215583791</v>
+        <v>0.999088971355417</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9964466920482161</v>
+        <v>0.9999245102469947</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9986376830096013</v>
+        <v>0.9999265340576261</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9975338348489937</v>
+        <v>0.9999413488630984</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001755096858889724</v>
+        <v>2.690354286572716e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00259956178321757</v>
+        <v>0.0008504052501825098</v>
       </c>
       <c r="I22" t="n">
-        <v>0.003196186640742279</v>
+        <v>5.593302003519687e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001205096294692823</v>
+        <v>5.907373554631201e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002200641467717551</v>
+        <v>5.750337779075444e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004849377590674966</v>
+        <v>0.0005252841884535456</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04189387615021704</v>
+        <v>0.005186862526202827</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9849582912417532</v>
+        <v>0.9997694285336438</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04367738519021082</v>
+        <v>0.005407678002228905</v>
       </c>
       <c r="P22" t="n">
-        <v>54.69046246667336</v>
+        <v>63.04650514996642</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.28685478890556</v>
+        <v>88.64289747219863</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_3</t>
+          <t>model_1_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.998086709040799</v>
+        <v>0.9999683896687865</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9971824597768121</v>
+        <v>0.9990844874769074</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9964157930134986</v>
+        <v>0.9999119722954584</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9986019407791453</v>
+        <v>0.9999144299186753</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9975005452199993</v>
+        <v>0.999931647662382</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001785973126647397</v>
+        <v>2.950685665458105e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002630050122623921</v>
+        <v>0.0008545907539517491</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003223980201929884</v>
+        <v>6.522283046060943e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001236713627362151</v>
+        <v>6.880663599373197e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002230346914646017</v>
+        <v>6.701473322717069e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004894878025989495</v>
+        <v>0.0005432572523126636</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04226077527267332</v>
+        <v>0.005432021415143818</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9846936723263919</v>
+        <v>0.9997471173502923</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04405990396789596</v>
+        <v>0.005663273812620977</v>
       </c>
       <c r="P23" t="n">
-        <v>54.65558368662204</v>
+        <v>62.86177578531416</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.25197600885426</v>
+        <v>88.45816810754636</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_2</t>
+          <t>model_1_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9980530034618564</v>
+        <v>0.9999678249949373</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9971491482197476</v>
+        <v>0.9990802138456353</v>
       </c>
       <c r="D24" t="n">
-        <v>0.996384300526583</v>
+        <v>0.9999094678545863</v>
       </c>
       <c r="E24" t="n">
-        <v>0.998565527396593</v>
+        <v>0.9999125995437805</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9974666238178771</v>
+        <v>0.9999299507412418</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001817435805086341</v>
+        <v>3.003395490655897e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002661144998935145</v>
+        <v>0.0008585800011534793</v>
       </c>
       <c r="I24" t="n">
-        <v>0.003252307571054389</v>
+        <v>6.707845901805808e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001268924656586852</v>
+        <v>7.027843474821275e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00226061611382062</v>
+        <v>6.867844688313542e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.004940774346377807</v>
+        <v>0.0005464775124487954</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04263139459466862</v>
+        <v>0.005480324343189824</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9844240276948515</v>
+        <v>0.9997425999594984</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04444630132171636</v>
+        <v>0.005713633096314745</v>
       </c>
       <c r="P24" t="n">
-        <v>54.62065733925613</v>
+        <v>62.82636397224083</v>
       </c>
       <c r="Q24" t="n">
-        <v>80.21704966148833</v>
+        <v>88.42275629447303</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_1</t>
+          <t>model_1_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9980185522516464</v>
+        <v>0.9999617056463832</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9971151103920251</v>
+        <v>0.9990696390631371</v>
       </c>
       <c r="D25" t="n">
-        <v>0.996352302230518</v>
+        <v>0.9998853698478165</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9985280943229553</v>
+        <v>0.999881154067582</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9974319420580458</v>
+        <v>0.9999079500681841</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001849594497584095</v>
+        <v>3.574609817347524e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.002692917817026287</v>
+        <v>0.0008684510964362947</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00328108991353561</v>
+        <v>8.493352201407843e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.00130203769757342</v>
+        <v>9.556364426238242e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002291563805554515</v>
+        <v>9.024858313823042e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.004987201255657598</v>
+        <v>0.0005813295083734924</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04300691220704057</v>
+        <v>0.005978804075521729</v>
       </c>
       <c r="N25" t="n">
-        <v>0.984148418013171</v>
+        <v>0.9996936451710656</v>
       </c>
       <c r="O25" t="n">
-        <v>0.04483780549627561</v>
+        <v>0.006233334142847319</v>
       </c>
       <c r="P25" t="n">
-        <v>54.58557770882547</v>
+        <v>62.47813887356274</v>
       </c>
       <c r="Q25" t="n">
-        <v>80.18197003105767</v>
+        <v>88.07453119579495</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_0</t>
+          <t>model_1_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9979834288354583</v>
+        <v>0.9999609676857819</v>
       </c>
       <c r="C26" t="n">
-        <v>0.997080386918834</v>
+        <v>0.9990680710399044</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9963196337367943</v>
+        <v>0.9998841018861141</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9984899646320382</v>
+        <v>0.9998763871183387</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9973965772221923</v>
+        <v>0.9999055161550224</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001882380664855881</v>
+        <v>3.643495200203617e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.002725330655065703</v>
+        <v>0.0008699147772957569</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003310475096196282</v>
+        <v>8.587299955222949e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.001335766961442178</v>
+        <v>9.939673330834747e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00232312102881923</v>
+        <v>9.263486643028847e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005034045278087061</v>
+        <v>0.0005847278872761362</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04338641106217338</v>
+        <v>0.006036137175548297</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9838674306836666</v>
+        <v>0.9996877414862553</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04523346040334235</v>
+        <v>0.006293108031637897</v>
       </c>
       <c r="P26" t="n">
-        <v>54.5504359842848</v>
+        <v>62.43996404840317</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.14682830651701</v>
+        <v>88.03635637063537</v>
       </c>
     </row>
   </sheetData>
